--- a/etf_names.xlsx
+++ b/etf_names.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="REIT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="Commodity Futures" sheetId="29" r:id="rId29"/>
     <sheet name="Sheet1" sheetId="30" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1911,7 +1911,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1956,6 +1956,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2004,7 +2007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,9 +2040,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2072,6 +2092,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5133,9 +5170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5916,7 +5951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
